--- a/data/SampleV.01/Libal_Config_EN_SampleV.01.xlsx
+++ b/data/SampleV.01/Libal_Config_EN_SampleV.01.xlsx
@@ -28,10 +28,10 @@
     <t>Pset</t>
   </si>
   <si>
-    <t>AttributName</t>
-  </si>
-  <si>
-    <t>AttributDescriptionEN</t>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionEN</t>
   </si>
   <si>
     <t>DataTyp</t>
@@ -139,15 +139,15 @@
     <t>LongName</t>
   </si>
   <si>
+    <t>PredefinedType</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace</t>
+  </si>
+  <si>
     <t>IsExternal</t>
   </si>
   <si>
-    <t>PredefinedType</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace</t>
-  </si>
-  <si>
     <t>Project Name or Number</t>
   </si>
   <si>
@@ -160,76 +160,65 @@
     <t>Unique floor designation</t>
   </si>
   <si>
-    <t>Recommendation: &lt;br&gt;_x005F_x000D_
-- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;_x005F_x000D_
-- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;_x005F_x000D_
-&lt;br&gt;_x005F_x000D_
-Key Principles for Effective Data Management:_x005F_x000D_
-_x005F_x000D_
-1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;_x005F_x000D_
-   - Position (not relocated to a different part of the building)_x005F_x000D_
-   - General size (minor adjustments are acceptable)_x005F_x000D_
-   - Primary function (e.g., remains an office or meeting room)_x005F_x000D_
-_x005F_x000D_
-2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:_x005F_x000D_
-   - Prevents confusion in historical data analysis_x005F_x000D_
-   - Avoids potential errors in facility management systems_x005F_x000D_
-_x005F_x000D_
-3. Consistency: Apply identifiers systematically across all building documentation and systems:_x005F_x000D_
-   - Floor plans_x005F_x000D_
-   - Building Information Models (BIM)_x005F_x000D_
-   - Facility management software_x005F_x000D_
-   - Maintenance records_x005F_x000D_
-_x005F_x000D_
-4. Format Standardization: Adopt a consistent format for all identifiers:_x005F_x000D_
-   - E.g., three-digit numbers preceded by # (#001, #002, etc.)_x005F_x000D_
-   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)_x005F_x000D_
-_x005F_x000D_
-5. Change Management: Implement a formal process for identifier changes when necessary:_x005F_x000D_
-   - Document reasons for changes_x005F_x000D_
-   - Update all relevant systems and documentation_x005F_x000D_
-   - Maintain a change log for future reference_x005F_x000D_
-_x005F_x000D_
-6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:_x005F_x000D_
-   - Explain that the current identifiers are technical room numbers crucial for data integrity_x005F_x000D_
-   - Offer to add a separate, non-technical room number attribute to accommodate their preference_x005F_x000D_
-   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations_x005F_x000D_
-_x005F_x000D_
+    <t>Recommendation: \n
+- Room Identifier: Persistent Unique Numerical Designation \n
+- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 \n
+\n
+Key Principles for Effective Data Management:
+1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: \n
+   - Position (not relocated to a different part of the building)\n
+   - General size (minor adjustments are acceptable)\n
+   - Primary function (e.g., remains an office or meeting room)
+2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:
+   - Prevents confusion in historical data analysis
+   - Avoids potential errors in facility management systems
+3. Consistency: Apply identifiers systematically across all building documentation and systems:
+   - Floor plans
+   - Building Information Models (BIM)
+   - Facility management software
+   - Maintenance records
+4. Format Standardization: Adopt a consistent format for all identifiers:
+   - E.g., three-digit numbers preceded by # (#001, #002, etc.)
+   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)
+5. Change Management: Implement a formal process for identifier changes when necessary:
+   - Document reasons for changes
+   - Update all relevant systems and documentation
+   - Maintain a change log for future reference
+6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:
+   - Explain that the current identifiers are technical room numbers crucial for data integrity
+   - Offer to add a separate, non-technical room number attribute to accommodate their preference
+   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations
 Remember: While it may seem tempting to reorganize or reuse identifiers, maintaining consistency over time is crucial for reliable long-term data management and analysis in facility operations. Technical room numbers should remain stable, even if additional labeling schemes are introduced for client use.</t>
   </si>
   <si>
-    <t>Room Type Naming: A Key Element in Building Information Management_x005F_x000D_
-_x005F_x000D_
-Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage._x005F_x000D_
-_x005F_x000D_
-Best Practices:_x005F_x000D_
-1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")_x005F_x000D_
-2. Establish a standardized list of room types for your organization_x005F_x000D_
-3. Avoid abbreviations or codes that may be unclear to some users_x005F_x000D_
-4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")_x005F_x000D_
-5. Regularly review and update naming conventions to ensure they meet evolving needs_x005F_x000D_
-_x005F_x000D_
+    <t>Room Type Naming: A Key Element in Building Information Management
+Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage.
+Best Practices:
+1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")
+2. Establish a standardized list of room types for your organization
+3. Avoid abbreviations or codes that may be unclear to some users
+4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")
+5. Regularly review and update naming conventions to ensure they meet evolving needs
 Remember: Consistent and thoughtful room type naming is foundational for effective building information management. It supports improved decision-making, efficiency, and long-term data usability across various aspects of facility management, energy modeling, space utilization, and regulatory compliance.</t>
   </si>
   <si>
-    <t>The attribute defines space location:_x005F_x000D_
-_x005F_x000D_
-True: Outside (e.g., balcony)_x005F_x000D_
+    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
+  </si>
+  <si>
+    <t>The attribute defines space location:
+True: Outside (e.g., balcony)
 False: Inside (e.g., kitchen, parking garage)</t>
   </si>
   <si>
-    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
-  </si>
-  <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>Recommendation:
 - Name them consistently for simple filtering. E.g. Void</t>
   </si>
   <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>Recommendation:
 - Specify window type via PredefinedType</t>
   </si>
   <si>
-    <t>Recommendation:_x005F_x000D_
+    <t>Recommendation:
 - Specify door type via PredefinedType</t>
   </si>
   <si>
@@ -638,16 +627,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="1" customWidth="1"/>
     <col min="12" max="22" width="8.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,6 +1087,9 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1150,9 +1137,6 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1160,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>55</v>
@@ -1248,10 +1232,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>52</v>
@@ -1307,10 +1291,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>53</v>
@@ -1366,10 +1350,10 @@
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
@@ -1425,10 +1409,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>53</v>
@@ -1720,10 +1704,10 @@
         <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>54</v>
